--- a/teaching/traditional_assets/database/data/croatia/croatia_machinery.xlsx
+++ b/teaching/traditional_assets/database/data/croatia/croatia_machinery.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0727</v>
+        <v>-0.0593</v>
       </c>
       <c r="G2">
-        <v>0.06354166666666666</v>
+        <v>-0.4208333333333333</v>
       </c>
       <c r="H2">
-        <v>0.06354166666666666</v>
+        <v>-0.4208333333333333</v>
       </c>
       <c r="I2">
-        <v>-0.09104166666666667</v>
+        <v>-0.4979166666666666</v>
       </c>
       <c r="J2">
-        <v>-0.09104166666666667</v>
+        <v>-0.4979166666666666</v>
       </c>
       <c r="K2">
-        <v>-9.76</v>
+        <v>-26</v>
       </c>
       <c r="L2">
-        <v>-0.2033333333333333</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.397</v>
+        <v>8.02</v>
       </c>
       <c r="V2">
-        <v>0.05135834411384217</v>
+        <v>1.147353361945636</v>
       </c>
       <c r="W2">
-        <v>-0.7870967741935484</v>
+        <v>-12.32227488151659</v>
       </c>
       <c r="X2">
-        <v>0.5851779104658467</v>
+        <v>0.7665345783699571</v>
       </c>
       <c r="Y2">
-        <v>-1.372274684659395</v>
+        <v>-13.08880945988654</v>
       </c>
       <c r="Z2">
-        <v>0.8317737575379497</v>
+        <v>0.9914692334703488</v>
       </c>
       <c r="AA2">
-        <v>-0.07572606917585084</v>
+        <v>-0.4936690558321111</v>
       </c>
       <c r="AB2">
-        <v>0.1275115873065224</v>
+        <v>0.1038806531387532</v>
       </c>
       <c r="AC2">
-        <v>-0.2032376564823732</v>
+        <v>-0.5975497089708642</v>
       </c>
       <c r="AD2">
-        <v>46.7</v>
+        <v>75.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>46.7</v>
+        <v>75.7</v>
       </c>
       <c r="AG2">
-        <v>46.303</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.8579827301120705</v>
+        <v>0.9154674083927924</v>
       </c>
       <c r="AI2">
-        <v>0.9559877175025588</v>
+        <v>1.490157480314961</v>
       </c>
       <c r="AJ2">
-        <v>0.8569392778487221</v>
+        <v>0.9063881076737647</v>
       </c>
       <c r="AK2">
-        <v>0.9556271025529895</v>
+        <v>1.582047685834502</v>
       </c>
       <c r="AL2">
-        <v>2.21</v>
+        <v>2.72</v>
       </c>
       <c r="AM2">
-        <v>2.21</v>
+        <v>2.697</v>
       </c>
       <c r="AN2">
-        <v>-35.11278195488722</v>
+        <v>-3.604761904761905</v>
       </c>
       <c r="AO2">
-        <v>-1.97737556561086</v>
+        <v>-8.786764705882351</v>
       </c>
       <c r="AP2">
-        <v>-34.81428571428572</v>
+        <v>-3.222857142857143</v>
       </c>
       <c r="AQ2">
-        <v>-1.97737556561086</v>
+        <v>-8.86169818316648</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0727</v>
+        <v>-0.0593</v>
       </c>
       <c r="G3">
-        <v>0.06354166666666666</v>
+        <v>-0.4208333333333333</v>
       </c>
       <c r="H3">
-        <v>0.06354166666666666</v>
+        <v>-0.4208333333333333</v>
       </c>
       <c r="I3">
-        <v>-0.09104166666666667</v>
+        <v>-0.4979166666666666</v>
       </c>
       <c r="J3">
-        <v>-0.09104166666666667</v>
+        <v>-0.4979166666666666</v>
       </c>
       <c r="K3">
-        <v>-9.76</v>
+        <v>-26</v>
       </c>
       <c r="L3">
-        <v>-0.2033333333333333</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.397</v>
+        <v>8.02</v>
       </c>
       <c r="V3">
-        <v>0.05135834411384217</v>
+        <v>1.147353361945636</v>
       </c>
       <c r="W3">
-        <v>-0.7870967741935484</v>
+        <v>-12.32227488151659</v>
       </c>
       <c r="X3">
-        <v>0.5851779104658467</v>
+        <v>0.7665345783699571</v>
       </c>
       <c r="Y3">
-        <v>-1.372274684659395</v>
+        <v>-13.08880945988654</v>
       </c>
       <c r="Z3">
-        <v>0.8317737575379497</v>
+        <v>0.9914692334703488</v>
       </c>
       <c r="AA3">
-        <v>-0.07572606917585084</v>
+        <v>-0.4936690558321111</v>
       </c>
       <c r="AB3">
-        <v>0.1275115873065224</v>
+        <v>0.1038806531387532</v>
       </c>
       <c r="AC3">
-        <v>-0.2032376564823732</v>
+        <v>-0.5975497089708642</v>
       </c>
       <c r="AD3">
-        <v>46.7</v>
+        <v>75.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>46.7</v>
+        <v>75.7</v>
       </c>
       <c r="AG3">
-        <v>46.303</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.8579827301120705</v>
+        <v>0.9154674083927924</v>
       </c>
       <c r="AI3">
-        <v>0.9559877175025588</v>
+        <v>1.490157480314961</v>
       </c>
       <c r="AJ3">
-        <v>0.8569392778487221</v>
+        <v>0.9063881076737647</v>
       </c>
       <c r="AK3">
-        <v>0.9556271025529895</v>
+        <v>1.582047685834502</v>
       </c>
       <c r="AL3">
-        <v>2.21</v>
+        <v>2.72</v>
       </c>
       <c r="AM3">
-        <v>2.21</v>
+        <v>2.697</v>
       </c>
       <c r="AN3">
-        <v>-35.11278195488722</v>
+        <v>-3.604761904761905</v>
       </c>
       <c r="AO3">
-        <v>-1.97737556561086</v>
+        <v>-8.786764705882351</v>
       </c>
       <c r="AP3">
-        <v>-34.81428571428572</v>
+        <v>-3.222857142857143</v>
       </c>
       <c r="AQ3">
-        <v>-1.97737556561086</v>
+        <v>-8.86169818316648</v>
       </c>
     </row>
   </sheetData>
